--- a/Wyniki/wyniki.xlsx
+++ b/Wyniki/wyniki.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9A77A-8D36-466B-9157-E5C89CAF5816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69676043-419E-42EF-9D19-EA5A8CA42AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>A-n32-k5</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>powrót na pierwszym</t>
+  </si>
+  <si>
+    <t>powrót bez opcji</t>
   </si>
 </sst>
 </file>
@@ -430,12 +433,13 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -445,6 +449,9 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
       <c r="G1" t="s">
         <v>28</v>
       </c>
@@ -456,6 +463,12 @@
       <c r="C2">
         <v>805</v>
       </c>
+      <c r="D2">
+        <v>804</v>
+      </c>
+      <c r="E2">
+        <v>812</v>
+      </c>
       <c r="G2">
         <v>784</v>
       </c>
@@ -467,6 +480,12 @@
       <c r="C3">
         <v>678</v>
       </c>
+      <c r="D3">
+        <v>680</v>
+      </c>
+      <c r="E3">
+        <v>706</v>
+      </c>
       <c r="G3">
         <v>661</v>
       </c>
@@ -478,6 +497,12 @@
       <c r="C4">
         <v>765</v>
       </c>
+      <c r="D4">
+        <v>763</v>
+      </c>
+      <c r="E4">
+        <v>814</v>
+      </c>
       <c r="G4">
         <v>742</v>
       </c>
@@ -489,6 +514,12 @@
       <c r="C5">
         <v>797</v>
       </c>
+      <c r="D5">
+        <v>797</v>
+      </c>
+      <c r="E5">
+        <v>840</v>
+      </c>
       <c r="G5">
         <v>778</v>
       </c>
@@ -500,6 +531,12 @@
       <c r="C6">
         <v>846</v>
       </c>
+      <c r="D6">
+        <v>850</v>
+      </c>
+      <c r="E6">
+        <v>914</v>
+      </c>
       <c r="G6">
         <v>799</v>
       </c>
@@ -511,6 +548,12 @@
       <c r="C7">
         <v>709</v>
       </c>
+      <c r="D7">
+        <v>722</v>
+      </c>
+      <c r="E7">
+        <v>751</v>
+      </c>
       <c r="G7">
         <v>669</v>
       </c>
@@ -522,6 +565,12 @@
       <c r="C8">
         <v>973</v>
       </c>
+      <c r="D8">
+        <v>966</v>
+      </c>
+      <c r="E8">
+        <v>1037</v>
+      </c>
       <c r="G8">
         <v>949</v>
       </c>
@@ -533,6 +582,12 @@
       <c r="C9">
         <v>753</v>
       </c>
+      <c r="D9">
+        <v>759</v>
+      </c>
+      <c r="E9">
+        <v>811</v>
+      </c>
       <c r="G9">
         <v>730</v>
       </c>
@@ -544,6 +599,12 @@
       <c r="C10">
         <v>859</v>
       </c>
+      <c r="D10">
+        <v>862</v>
+      </c>
+      <c r="E10">
+        <v>887</v>
+      </c>
       <c r="G10">
         <v>822</v>
       </c>
@@ -555,6 +616,12 @@
       <c r="C11">
         <v>868</v>
       </c>
+      <c r="D11">
+        <v>866</v>
+      </c>
+      <c r="E11">
+        <v>928</v>
+      </c>
       <c r="G11">
         <v>831</v>
       </c>
@@ -566,6 +633,12 @@
       <c r="C12">
         <v>969</v>
       </c>
+      <c r="D12">
+        <v>961</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
       <c r="G12">
         <v>937</v>
       </c>
@@ -577,6 +650,12 @@
       <c r="C13">
         <v>997</v>
       </c>
+      <c r="D13">
+        <v>997</v>
+      </c>
+      <c r="E13">
+        <v>1011</v>
+      </c>
       <c r="G13">
         <v>944</v>
       </c>
@@ -588,6 +667,12 @@
       <c r="C14">
         <v>1242</v>
       </c>
+      <c r="D14">
+        <v>1242</v>
+      </c>
+      <c r="E14">
+        <v>1315</v>
+      </c>
       <c r="G14">
         <v>1146</v>
       </c>
@@ -599,6 +684,12 @@
       <c r="C15">
         <v>1000</v>
       </c>
+      <c r="D15">
+        <v>989</v>
+      </c>
+      <c r="E15">
+        <v>1010</v>
+      </c>
       <c r="G15">
         <v>914</v>
       </c>
@@ -610,6 +701,12 @@
       <c r="C16">
         <v>1151</v>
       </c>
+      <c r="D16">
+        <v>1144</v>
+      </c>
+      <c r="E16">
+        <v>1236</v>
+      </c>
       <c r="G16">
         <v>1073</v>
       </c>
@@ -621,6 +718,12 @@
       <c r="C17">
         <v>1093</v>
       </c>
+      <c r="D17">
+        <v>1074</v>
+      </c>
+      <c r="E17">
+        <v>1158</v>
+      </c>
       <c r="G17">
         <v>1010</v>
       </c>
@@ -632,6 +735,12 @@
       <c r="C18">
         <v>1248</v>
       </c>
+      <c r="D18">
+        <v>1229</v>
+      </c>
+      <c r="E18">
+        <v>1294</v>
+      </c>
       <c r="G18">
         <v>1167</v>
       </c>
@@ -643,6 +752,12 @@
       <c r="C19">
         <v>1141</v>
       </c>
+      <c r="D19">
+        <v>1153</v>
+      </c>
+      <c r="E19">
+        <v>1235</v>
+      </c>
       <c r="G19">
         <v>1073</v>
       </c>
@@ -654,6 +769,12 @@
       <c r="C20">
         <v>1417</v>
       </c>
+      <c r="D20">
+        <v>1428</v>
+      </c>
+      <c r="E20">
+        <v>1582</v>
+      </c>
       <c r="G20">
         <v>1354</v>
       </c>
@@ -665,6 +786,12 @@
       <c r="C21">
         <v>1177</v>
       </c>
+      <c r="D21">
+        <v>1148</v>
+      </c>
+      <c r="E21">
+        <v>1171</v>
+      </c>
       <c r="G21">
         <v>1034</v>
       </c>
@@ -676,6 +803,12 @@
       <c r="C22">
         <v>1370</v>
       </c>
+      <c r="D22">
+        <v>1374</v>
+      </c>
+      <c r="E22">
+        <v>1472</v>
+      </c>
       <c r="G22">
         <v>1288</v>
       </c>
@@ -687,6 +820,12 @@
       <c r="C23">
         <v>1716</v>
       </c>
+      <c r="D23">
+        <v>1707</v>
+      </c>
+      <c r="E23">
+        <v>1778</v>
+      </c>
       <c r="G23">
         <v>1616</v>
       </c>
@@ -698,6 +837,12 @@
       <c r="C24">
         <v>1393</v>
       </c>
+      <c r="D24">
+        <v>1400</v>
+      </c>
+      <c r="E24">
+        <v>1559</v>
+      </c>
       <c r="G24">
         <v>1314</v>
       </c>
@@ -709,6 +854,12 @@
       <c r="C25">
         <v>1501</v>
       </c>
+      <c r="D25">
+        <v>1524</v>
+      </c>
+      <c r="E25">
+        <v>1641</v>
+      </c>
       <c r="G25">
         <v>1401</v>
       </c>
@@ -720,6 +871,12 @@
       <c r="C26">
         <v>1249</v>
       </c>
+      <c r="D26">
+        <v>1295</v>
+      </c>
+      <c r="E26">
+        <v>1332</v>
+      </c>
       <c r="G26">
         <v>1174</v>
       </c>
@@ -731,6 +888,12 @@
       <c r="C27">
         <v>1266</v>
       </c>
+      <c r="D27">
+        <v>1254</v>
+      </c>
+      <c r="E27">
+        <v>1405</v>
+      </c>
       <c r="G27">
         <v>1159</v>
       </c>
@@ -741,6 +904,12 @@
       </c>
       <c r="C28">
         <v>1952</v>
+      </c>
+      <c r="D28">
+        <v>1965</v>
+      </c>
+      <c r="E28">
+        <v>2122</v>
       </c>
       <c r="G28">
         <v>1763</v>

--- a/Wyniki/wyniki.xlsx
+++ b/Wyniki/wyniki.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69676043-419E-42EF-9D19-EA5A8CA42AE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F71188-1A98-4D88-9B16-58446698150D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>A-n32-k5</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>powrót bez opcji</t>
+  </si>
+  <si>
+    <t>elitarne3000</t>
+  </si>
+  <si>
+    <t>6!</t>
+  </si>
+  <si>
+    <t>7!</t>
+  </si>
+  <si>
+    <t>zdarza się 10</t>
   </si>
 </sst>
 </file>
@@ -430,488 +442,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
+        <v>804</v>
+      </c>
+      <c r="D2">
         <v>805</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>804</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>812</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>675</v>
+      </c>
+      <c r="D3">
         <v>678</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>680</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>706</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
+        <v>754</v>
+      </c>
+      <c r="D4">
         <v>765</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>763</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>814</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>742</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D5">
         <v>797</v>
       </c>
       <c r="E5">
+        <v>797</v>
+      </c>
+      <c r="F5">
         <v>840</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>778</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
+        <v>837</v>
+      </c>
+      <c r="D6">
         <v>846</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>850</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>914</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>799</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>705</v>
+      </c>
+      <c r="D7">
         <v>709</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>722</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>751</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
+        <v>963</v>
+      </c>
+      <c r="D8">
         <v>973</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>966</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1037</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>949</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
+        <v>754</v>
+      </c>
+      <c r="D9">
         <v>753</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>759</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>811</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>730</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
+        <v>849</v>
+      </c>
+      <c r="D10">
         <v>859</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>862</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>887</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>822</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
+        <v>854</v>
+      </c>
+      <c r="D11">
         <v>868</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>866</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>928</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
       <c r="C12">
+        <v>957</v>
+      </c>
+      <c r="D12">
         <v>969</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>961</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1024</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>937</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
       <c r="C13">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="D13">
         <v>997</v>
       </c>
       <c r="E13">
+        <v>997</v>
+      </c>
+      <c r="F13">
         <v>1011</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>944</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1242</v>
+        <v>1213</v>
       </c>
       <c r="D14">
         <v>1242</v>
       </c>
       <c r="E14">
+        <v>1242</v>
+      </c>
+      <c r="F14">
         <v>1315</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1146</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
+        <v>982</v>
+      </c>
+      <c r="D15">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>989</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1010</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>914</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1139</v>
+      </c>
+      <c r="D16">
         <v>1151</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1144</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1236</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1073</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
+        <v>1066</v>
+      </c>
+      <c r="D17">
         <v>1093</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1074</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1158</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1010</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
+        <v>1215</v>
+      </c>
+      <c r="D18">
         <v>1248</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1229</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1294</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1167</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1135</v>
+      </c>
+      <c r="D19">
         <v>1141</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1153</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1235</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1073</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
+        <v>1422</v>
+      </c>
+      <c r="D20">
         <v>1417</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1428</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1582</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1354</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
       <c r="C21">
+        <v>1128</v>
+      </c>
+      <c r="D21">
         <v>1177</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1148</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1171</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1034</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
+        <v>1353</v>
+      </c>
+      <c r="D22">
         <v>1370</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1374</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1472</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1288</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1711</v>
+      </c>
+      <c r="D23">
         <v>1716</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1707</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1778</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1616</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
+        <v>1380</v>
+      </c>
+      <c r="D24">
         <v>1393</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1400</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1559</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1314</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
+        <v>1488</v>
+      </c>
+      <c r="D25">
         <v>1501</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1524</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1641</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1401</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
+        <v>1296</v>
+      </c>
+      <c r="D26">
         <v>1249</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1295</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1332</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1174</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
+        <v>1238</v>
+      </c>
+      <c r="D27">
         <v>1266</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1254</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1405</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1159</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="C28">
+        <v>1931</v>
+      </c>
+      <c r="D28">
         <v>1952</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1965</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2122</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1763</v>
       </c>
     </row>

--- a/Wyniki/wyniki.xlsx
+++ b/Wyniki/wyniki.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F71188-1A98-4D88-9B16-58446698150D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4F547-9630-4484-9160-3D0E830B0CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>A-n32-k5</t>
   </si>
@@ -118,13 +123,19 @@
     <t>elitarne3000</t>
   </si>
   <si>
-    <t>6!</t>
-  </si>
-  <si>
-    <t>7!</t>
-  </si>
-  <si>
-    <t>zdarza się 10</t>
+    <t>elitarne powrót kiedykolwiek</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>elit300 - opt</t>
+  </si>
+  <si>
+    <t>min - opt</t>
+  </si>
+  <si>
+    <t>ciez</t>
   </si>
 </sst>
 </file>
@@ -442,584 +453,1079 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>804</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="E2">
         <v>804</v>
       </c>
       <c r="F2">
+        <v>805</v>
+      </c>
+      <c r="G2">
+        <v>804</v>
+      </c>
+      <c r="H2">
         <v>812</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>784</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>MIN(E2,F2,G2,H2,D2)</f>
+        <v>784</v>
+      </c>
+      <c r="N2">
+        <f>L2 - J2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>E2 - J2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>676</v>
+      </c>
+      <c r="E3">
         <v>675</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>678</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>680</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>706</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>661</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>MIN(E3,F3,G3,H3,D3)</f>
+        <v>675</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N28" si="0">L3 - J3</f>
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P28" si="1">E3 - J3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>754</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>765</v>
       </c>
       <c r="E4">
+        <v>754</v>
+      </c>
+      <c r="F4">
+        <v>765</v>
+      </c>
+      <c r="G4">
         <v>763</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>814</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>742</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>MIN(E4,F4,G4,H4,D4)</f>
+        <v>754</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>822</v>
+      </c>
+      <c r="E5">
         <v>787</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>797</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>797</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>840</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>778</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>MIN(E5,F5,G5,H5,D5)</f>
+        <v>787</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>876</v>
+      </c>
+      <c r="E6">
         <v>837</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>846</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>850</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>914</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>799</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>MIN(E6,F6,G6,H6,D6)</f>
+        <v>837</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>728</v>
+      </c>
+      <c r="E7">
         <v>705</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>709</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>722</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>751</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>669</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f>MIN(E7,F7,G7,H7,D7)</f>
+        <v>705</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1021</v>
+      </c>
+      <c r="E8">
         <v>963</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>973</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>966</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1037</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>949</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>MIN(E8,F8,G8,H8,D8)</f>
+        <v>963</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>775</v>
+      </c>
+      <c r="E9">
         <v>754</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>753</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>759</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>811</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>730</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>MIN(E9,F9,G9,H9,D9)</f>
+        <v>753</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>915</v>
+      </c>
+      <c r="E10">
         <v>849</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>859</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>862</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>887</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>822</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>MIN(E10,F10,G10,H10,D10)</f>
+        <v>849</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>865</v>
+      </c>
+      <c r="E11">
         <v>854</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>868</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>866</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>928</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>831</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f>MIN(E11,F11,G11,H11,D11)</f>
+        <v>854</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1021</v>
+      </c>
+      <c r="E12">
         <v>957</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>969</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>961</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1024</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>937</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f>MIN(E12,F12,G12,H12,D12)</f>
+        <v>957</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1040</v>
+      </c>
+      <c r="E13">
+        <v>977</v>
+      </c>
+      <c r="F13">
+        <v>997</v>
+      </c>
+      <c r="G13">
+        <v>997</v>
+      </c>
+      <c r="H13">
+        <v>1011</v>
+      </c>
+      <c r="J13">
+        <v>944</v>
+      </c>
+      <c r="L13">
+        <f>MIN(E13,F13,G13,H13,D13)</f>
+        <v>977</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C13">
-        <v>977</v>
-      </c>
-      <c r="D13">
-        <v>997</v>
-      </c>
-      <c r="E13">
-        <v>997</v>
-      </c>
-      <c r="F13">
-        <v>1011</v>
-      </c>
-      <c r="H13">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1241</v>
+      </c>
+      <c r="E14">
         <v>1213</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1242</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1242</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1315</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1146</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>MIN(E14,F14,G14,H14,D14)</f>
+        <v>1213</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1009</v>
+      </c>
+      <c r="E15">
         <v>982</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1000</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>989</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>1010</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>914</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>MIN(E15,F15,G15,H15,D15)</f>
+        <v>982</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1164</v>
+      </c>
+      <c r="E16">
         <v>1139</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>1151</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1144</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1236</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>1073</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>MIN(E16,F16,G16,H16,D16)</f>
+        <v>1139</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1099</v>
+      </c>
+      <c r="E17">
         <v>1066</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1093</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1074</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1158</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>1010</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>MIN(E17,F17,G17,H17,D17)</f>
+        <v>1066</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1296</v>
+      </c>
+      <c r="E18">
         <v>1215</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1248</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>1229</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1294</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1167</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>MIN(E18,F18,G18,H18,D18)</f>
+        <v>1215</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>1216</v>
+      </c>
+      <c r="E19">
         <v>1135</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1141</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1153</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1235</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1073</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>MIN(E19,F19,G19,H19,D19)</f>
+        <v>1135</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1475</v>
+      </c>
+      <c r="E20">
         <v>1422</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>1417</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1428</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1582</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1354</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>MIN(E20,F20,G20,H20,D20)</f>
+        <v>1417</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>1187</v>
+      </c>
+      <c r="E21">
         <v>1128</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1177</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1148</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1171</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1034</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>MIN(E21,F21,G21,H21,D21)</f>
+        <v>1128</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>1411</v>
+      </c>
+      <c r="E22">
         <v>1353</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>1370</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>1374</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>1472</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>1288</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>MIN(E22,F22,G22,H22,D22)</f>
+        <v>1353</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1777</v>
+      </c>
+      <c r="E23">
         <v>1711</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1716</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1707</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1778</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>1616</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>MIN(E23,F23,G23,H23,D23)</f>
+        <v>1707</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1420</v>
+      </c>
+      <c r="E24">
         <v>1380</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>1393</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>1400</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>1559</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>1314</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>MIN(E24,F24,G24,H24,D24)</f>
+        <v>1380</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1577</v>
+      </c>
+      <c r="E25">
         <v>1488</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>1501</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>1524</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1641</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>1401</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>MIN(E25,F25,G25,H25,D25)</f>
+        <v>1488</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>1341</v>
+      </c>
+      <c r="E26">
         <v>1296</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1249</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>1295</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1332</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>1174</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>MIN(E26,F26,G26,H26,D26)</f>
+        <v>1249</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>1308</v>
+      </c>
+      <c r="E27">
         <v>1238</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>1266</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1254</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1405</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1159</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>MIN(E27,F27,G27,H27,D27)</f>
+        <v>1238</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>2029</v>
+      </c>
+      <c r="E28">
         <v>1931</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1952</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>1965</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>2122</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>1763</v>
+      </c>
+      <c r="L28">
+        <f>MIN(E28,F28,G28,H28,D28)</f>
+        <v>1931</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
